--- a/data/add.xlsx
+++ b/data/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-DATA\GoogleDriveYork\THESIS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EAD1C-A36F-4AA2-88FF-0E4DF5D33A52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDFE2AE-00E6-4CEB-927F-2E558D143060}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33408,13 +33408,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>382562</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>112519</xdr:rowOff>
+      <xdr:rowOff>112520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>253852</xdr:colOff>
+      <xdr:colOff>246949</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>37561</xdr:rowOff>
+      <xdr:rowOff>32681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33426,7 +33426,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -39668,10 +39668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C6D6B-0B07-4DE8-B020-3320E9CB0D91}">
-  <dimension ref="A1:AU31"/>
+  <dimension ref="A1:AU41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -42517,6 +42517,36 @@
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="Q37" s="14">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="40" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <v>210</v>
+      </c>
+      <c r="Q40">
+        <f>P40/$Q$37</f>
+        <v>7.0707070707070709</v>
+      </c>
+      <c r="R40">
+        <f>R41/Q41*Q40</f>
+        <v>4.595959595959596</v>
+      </c>
+    </row>
+    <row r="41" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <v>297</v>
+      </c>
+      <c r="Q41" s="14">
+        <f>P41/$Q$37</f>
+        <v>10</v>
+      </c>
+      <c r="R41">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -44692,6 +44722,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
     <mergeCell ref="S32:W32"/>
     <mergeCell ref="S33:W33"/>
     <mergeCell ref="S34:W34"/>
@@ -44699,11 +44734,6 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
